--- a/Android.xlsx
+++ b/Android.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Material Design" sheetId="1" r:id="rId1"/>
+    <sheet name="Android app quality" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Material Design</t>
   </si>
@@ -114,6 +115,15 @@
   </si>
   <si>
     <t>Разрешается на Launch Screen размещать логотип приложения.</t>
+  </si>
+  <si>
+    <t>App quality</t>
+  </si>
+  <si>
+    <t>Навигация</t>
+  </si>
+  <si>
+    <t>Приложение поддерживает стандартную навигацию с помощью кнопки «Назад » и не использует никаких настраиваемых экранных подсказок «Кнопка «Назад».</t>
   </si>
 </sst>
 </file>
@@ -221,8 +231,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,20 +260,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,258 +554,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="85.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="85.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -800,4 +816,41 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Android.xlsx
+++ b/Android.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Material Design" sheetId="1" r:id="rId1"/>
     <sheet name="Android app quality" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Material Design</t>
   </si>
@@ -125,11 +125,180 @@
   <si>
     <t>Приложение поддерживает стандартную навигацию с помощью кнопки «Назад » и не использует никаких настраиваемых экранных подсказок «Кнопка «Назад».</t>
   </si>
+  <si>
+    <t>Приложение поддерживает жестовую навигацию для возврата / перехода на главный экран.</t>
+  </si>
+  <si>
+    <t>Приложение сохраняет состояние пользователя или приложения при выходе из переднего плана и предотвращает случайную потерю данных из-за обратной навигации и других изменений состояния.</t>
+  </si>
+  <si>
+    <t>Уведомления соответствуют рекомендациям по дизайну материалов .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбран правильный приоритет уведомлений </t>
+  </si>
+  <si>
+    <t>Несколько уведомлений объединяются в одну группу уведомлений , где это возможно.</t>
+  </si>
+  <si>
+    <t>Установлены тайм-ауты для уведомлений, где это уместно</t>
+  </si>
+  <si>
+    <t>Уведомления</t>
+  </si>
+  <si>
+    <t>Пользовательский интерфейс и графика</t>
+  </si>
+  <si>
+    <t>Приложение поддерживает и правильно обрабатывает как альбомную, так и книжную ориентацию (если возможно), а также складывание/раскладывание.</t>
+  </si>
+  <si>
+    <t>Приложение отображает графику, текст, изображения и другие элементы пользовательского интерфейса без заметных искажений, размытия или пикселизации.</t>
+  </si>
+  <si>
+    <t>Визуальное качество</t>
+  </si>
+  <si>
+    <t>Приложение отображает текст и текстовые блоки приемлемым образом для каждого из языков, поддерживаемых приложением.</t>
+  </si>
+  <si>
+    <t>Содержимое приложения и все веб-содержимое, на которое ссылается приложение, поддерживают темную тему .</t>
+  </si>
+  <si>
+    <t>Доступность</t>
+  </si>
+  <si>
+    <t>Цели сенсорного экрана должны иметь размер не менее 48 dp.</t>
+  </si>
+  <si>
+    <t>Текст приложения и содержимое переднего плана должны поддерживать достаточно высокий коэффициент цветового контраста с фоном:
+- 3,0:1 для крупного текста/графики
+- 4,5:1 для мелкого текста (текст меньше 18 пунктов или если текст выделен полужирным шрифтом и меньше 14 пунктов)</t>
+  </si>
+  <si>
+    <t>Аудио</t>
+  </si>
+  <si>
+    <t>Звук возобновляется, когда приложение возвращается на передний план или указывает пользователю, что воспроизведение приостановлено.</t>
+  </si>
+  <si>
+    <t>Если воспроизведение звука является основной функцией, приложение должно поддерживать фоновое воспроизведение .</t>
+  </si>
+  <si>
+    <t>Когда пользователь инициирует воспроизведение звука, приложение должно выполнить одно из следующих действий в течение одной секунды:
+- Начните воспроизводить аудио.
+- Предоставьте визуальный индикатор того, что аудиоданные подготавливаются.</t>
+  </si>
+  <si>
+    <t>Приложение должно запрашивать аудиофокус , когда звук начинает воспроизводиться, и отказываться от аудиофокуса, когда воспроизведение останавливается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение должно обрабатывать запросы других приложений на аудиофокус. </t>
+  </si>
+  <si>
+    <t>СМИ</t>
+  </si>
+  <si>
+    <t>Если приложение воспроизводит звук в фоновом режиме, оно должно создать уведомление в стиле MediaStyle .</t>
+  </si>
+  <si>
+    <t>Если приложение воспроизводит видео, оно должно поддерживать воспроизведение «картинка в картинке ».</t>
+  </si>
+  <si>
+    <t>Обмен</t>
+  </si>
+  <si>
+    <t>Приложение должно использовать Android Sharesheet при обмене контентом.</t>
+  </si>
+  <si>
+    <t>Фоновая служба</t>
+  </si>
+  <si>
+    <t>Приложение избегает запуска ненужных длинных служб в фоновом режиме.</t>
+  </si>
+  <si>
+    <t>Стабильность</t>
+  </si>
+  <si>
+    <t>Приложение не аварийно завершает работу и не блокирует поток пользовательского интерфейса, вызывая ошибки ANR (Android не отвечает).</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>Приложение загружается быстро или предоставляет пользователю обратную связь на экране (индикатор выполнения или аналогичный сигнал), если загрузка приложения занимает более двух секунд.</t>
+  </si>
+  <si>
+    <t>Приложения должны отображать кадры каждые 16 мс, чтобы достичь 60 кадров в секунду.</t>
+  </si>
+  <si>
+    <t>SDK</t>
+  </si>
+  <si>
+    <t>Приложение работает на последней общедоступной версии платформы Android без сбоев или серьезного влияния на основные функции.</t>
+  </si>
+  <si>
+    <t>Приложение не использует интерфейсы, отличные от SDK .</t>
+  </si>
+  <si>
+    <t>Батарея</t>
+  </si>
+  <si>
+    <t>Приложение должным образом поддерживает функции управления питанием, представленные в Android 6.0 (Doze и App Standby).</t>
+  </si>
+  <si>
+    <t>Разрешения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение запрашивает только абсолютно минимальное количество разрешений, которое ему необходимо для поддержки своего варианта использования. </t>
+  </si>
+  <si>
+    <t>Приложение запрашивает разрешение на доступ к конфиденциальным данным (таким как SMS, журнал вызовов или местоположение ) или платным службам (таким как номеронабиратель или SMS) только в том случае, если они напрямую связаны с основными вариантами использования приложений.</t>
+  </si>
+  <si>
+    <t>Приложение запрашивает разрешения во время выполнения в контексте, когда запрашивается функциональность, а не заранее во время запуска приложения.</t>
+  </si>
+  <si>
+    <t>Приложение должно изящно деградировать , когда пользователи отклоняют или отзывают разрешение. Приложение не должно полностью препятствовать доступу пользователя к приложению.</t>
+  </si>
+  <si>
+    <t>Дата файлы</t>
+  </si>
+  <si>
+    <t>Все конфиденциальные данные хранятся во внутренней памяти приложения .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Никакие личные или конфиденциальные пользовательские данные не записываются в системный журнал или журнал приложения.</t>
+  </si>
+  <si>
+    <t>Приложение предоставляет подсказки для автоматического заполнения учетных данных учетной записи и другой конфиденциальной информации, такой как информация о кредитной карте, физический адрес и номер телефона.</t>
+  </si>
+  <si>
+    <t>Интегрируйте One Tap для Android , чтобы упростить вход в систему.</t>
+  </si>
+  <si>
+    <t>Приложение поддерживает биометрическую аутентификацию для защиты финансовых транзакций или конфиденциальной информации, например важных пользовательских документов.</t>
+  </si>
+  <si>
+    <t>Идентификация</t>
+  </si>
+  <si>
+    <t>Сеть</t>
+  </si>
+  <si>
+    <t>Весь сетевой трафик отправляется через SSL .</t>
+  </si>
+  <si>
+    <t>Приложение объявляет конфигурацию сетевой безопасности .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если приложение использует сервисы Google Play, поставщик безопасности инициализируется при запуске приложения .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -260,11 +429,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -367,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -544,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -820,30 +992,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Android.xlsx
+++ b/Android.xlsx
@@ -292,7 +292,7 @@
     <t>Приложение объявляет конфигурацию сетевой безопасности .</t>
   </si>
   <si>
-    <t xml:space="preserve"> Если приложение использует сервисы Google Play, поставщик безопасности инициализируется при запуске приложения .</t>
+    <t>Если приложение использует сервисы Google Play, поставщик безопасности инициализируется при запуске приложения .</t>
   </si>
 </sst>
 </file>
@@ -417,6 +417,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,14 +435,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,7 +727,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,16 +737,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -995,292 +995,292 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Android.xlsx
+++ b/Android.xlsx
@@ -716,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Android.xlsx
+++ b/Android.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Material Design" sheetId="1" r:id="rId1"/>
     <sheet name="Android app quality" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
